--- a/spreadsheet/macrofree/azure_storage_checklist.ko.xlsx
+++ b/spreadsheet/macrofree/azure_storage_checklist.ko.xlsx
@@ -1174,7 +1174,7 @@
       </c>
       <c r="D10" s="21" t="inlineStr">
         <is>
-          <t>새로 만든 스토리지 계정은 ARM 배포 모델을 사용하여 생성되므로 RBAC, 감사 등이 모두 활성화됩니다. 구독에 클래식 배포 모델을 사용하는 이전 저장소 계정이 없는지 확인합니다.</t>
+          <t>새로 만든 스토리지 계정은 ARM 배포 모델을 사용하여 만들어지므로 RBAC, 감사 등이 모두 활성화됩니다. 구독에 클래식 배포 모델을 사용하는 이전 저장소 계정이 없는지 확인합니다.</t>
         </is>
       </c>
       <c r="E10" s="21" t="inlineStr">
@@ -1324,7 +1324,7 @@
       </c>
       <c r="D13" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">예를 들어 애플리케이션이 기밀성, 개인 정보 보호 또는 규정 준수를 위해 삭제된 정보가 즉시 삭제되도록 해야 하는 경우와 같이 특정 Blob 컨테이너에 대해 '일시 삭제'를 선택적으로 사용하지 않도록 설정하는 것이 좋습니다. </t>
+          <t xml:space="preserve">특정 Blob 컨테이너에 대해 '일시 삭제'를 선택적으로 사용하지 않도록 설정하는 것이 좋습니다(예: 기밀성, 개인 정보 보호 또는 규정 준수를 위해 애플리케이션에서 삭제된 정보가 즉시 삭제되도록 해야 하는 경우). </t>
         </is>
       </c>
       <c r="E13" s="21" t="inlineStr">
@@ -1374,7 +1374,7 @@
       </c>
       <c r="D14" s="21" t="inlineStr">
         <is>
-          <t>컨테이너에 대한 일시 삭제를 사용하면 컨테이너가 삭제된 후 복구할 수 있습니다(예: 실수로 삭제한 작업에서 복구).</t>
+          <t>컨테이너에 대한 일시 삭제를 사용하면 컨테이너가 삭제된 후 컨테이너를 복구할 수 있습니다(예: 실수로 삭제한 작업에서 복구).</t>
         </is>
       </c>
       <c r="E14" s="21" t="inlineStr">
@@ -1424,7 +1424,7 @@
       </c>
       <c r="D15" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">예를 들어 애플리케이션이 기밀성, 개인 정보 보호 또는 규정 준수를 위해 삭제된 정보가 즉시 삭제되도록 해야 하는 경우와 같이 특정 Blob 컨테이너에 대해 '일시 삭제'를 선택적으로 사용하지 않도록 설정하는 것이 좋습니다. </t>
+          <t xml:space="preserve">특정 Blob 컨테이너에 대해 '일시 삭제'를 선택적으로 사용하지 않도록 설정하는 것이 좋습니다(예: 기밀성, 개인 정보 보호 또는 규정 준수를 위해 애플리케이션에서 삭제된 정보가 즉시 삭제되도록 해야 하는 경우). </t>
         </is>
       </c>
       <c r="E15" s="21" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="D18" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">스토리지 계정에 대한 보호되지 않는 HTTP/80 액세스를 사용하지 않도록 설정하여 모든 데이터 전송이 암호화되고 무결성이 보호되며 서버가 인증되도록 하는 것이 좋습니다. </t>
+          <t xml:space="preserve">스토리지 계정에 대한 보호되지 않는 HTTP/80 액세스를 사용하지 않도록 설정하여 모든 데이터 전송이 암호화되고, 무결성이 보호되고, 서버가 인증되도록 하는 것이 좋습니다. </t>
         </is>
       </c>
       <c r="E18" s="21" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>HTTPS를 적용(HTTP 사용 안 함)할 때 스토리지 계정에 사용자 지정 도메인(CNAME)을 사용하지 않는지 확인합니다.</t>
+          <t>HTTPS를 적용하는 경우(HTTP 사용 안 함) 스토리지 계정에 사용자 지정 도메인(CNAME)을 사용하지 않는지 확인합니다.</t>
         </is>
       </c>
       <c r="D19" s="21" t="inlineStr">
@@ -1920,7 +1920,7 @@
       </c>
       <c r="D25" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">스토리지 계정 키('공유 키')에는 감사 기능이 거의 없습니다. 누가/언제 키 복사본을 가져왔는지 모니터링할 수 있지만 키가 여러 사람의 손에 들어가면 특정 사용자의 사용을 귀속시킬 수 없습니다. Entra ID 인증에만 의존하면 스토리지 액세스를 사용자에게 더 쉽게 연결할 수 있습니다. </t>
+          <t xml:space="preserve">스토리지 계정 키('공유 키')에는 감사 기능이 거의 없습니다. 누가/언제 키 복사본을 가져왔는지 모니터링할 수 있지만 키가 여러 사람의 손에 들어가면 특정 사용자의 사용을 귀속시키는 것은 불가능합니다. Entra ID 인증에만 의존하면 스토리지 액세스를 사용자에게 더 쉽게 연결할 수 있습니다. </t>
         </is>
       </c>
       <c r="E25" s="21" t="inlineStr">
@@ -1970,7 +1970,7 @@
       </c>
       <c r="D26" s="21" t="inlineStr">
         <is>
-          <t>활동 로그 데이터를 사용하여 스토리지 계정의 보안을 '언제', '누가', '무엇을' 및 '어떻게' 확인하거나 변경합니다(예: 스토리지 계정 키, 액세스 정책 등).</t>
+          <t>활동 로그 데이터를 사용하여 스토리지 계정의 보안이 '언제', '누가', '무엇을' 및 '어떻게' 확인되는지 식별합니다(예: 스토리지 계정 키, 액세스 정책 등).</t>
         </is>
       </c>
       <c r="E26" s="21" t="inlineStr">
@@ -2157,7 +2157,7 @@
       </c>
       <c r="B30" s="21" t="inlineStr">
         <is>
-          <t>CI/CD (영문)</t>
+          <t>CI/CD</t>
         </is>
       </c>
       <c r="C30" s="21" t="inlineStr">
@@ -2261,7 +2261,7 @@
       </c>
       <c r="D32" s="21" t="inlineStr">
         <is>
-          <t>임시 SAS 서비스 SAS 또는 계정 SAS에서 가까운 만료 시간을 사용합니다. 이러한 방식으로 SAS가 손상되더라도 짧은 시간 동안만 유효합니다. 이 방법은 저장된 액세스 정책을 참조할 수 없는 경우에 특히 중요합니다. 또한 단기 만료 시간은 Blob에 업로드할 수 있는 시간을 제한하여 Blob에 쓸 수 있는 데이터의 양을 제한합니다.</t>
+          <t>임시 SAS 서비스 SAS 또는 계정 SAS에서 단기 만료 시간을 사용합니다. 이러한 방식으로 SAS가 손상되더라도 짧은 시간 동안만 유효합니다. 이 방법은 저장된 액세스 정책을 참조할 수 없는 경우에 특히 중요합니다. 또한 단기 만료 시간은 Blob에 업로드할 수 있는 시간을 제한하여 Blob에 쓸 수 있는 데이터의 양을 제한합니다.</t>
         </is>
       </c>
       <c r="E32" s="21" t="inlineStr">
@@ -2452,7 +2452,7 @@
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>SFTP: SFTP 액세스를 위한 '로컬 사용자'의 수를 제한하고 시간이 지남에 따라 액세스가 필요한지 여부를 감사합니다.</t>
+          <t>SFTP: SFTP 액세스에 대한 '로컬 사용자'의 수를 제한하고 시간이 지남에 따라 액세스가 필요한지 여부를 감사합니다.</t>
         </is>
       </c>
       <c r="D36" s="21" t="inlineStr">
@@ -2553,7 +2553,7 @@
       </c>
       <c r="D38" s="21" t="inlineStr">
         <is>
-          <t>스토리지는 CORS(Cross-Origin Resource Sharing), 즉 다른 도메인의 웹 앱이 동일 출처 정책을 완화할 수 있도록 하는 HTTP 기능을 지원합니다. CORS를 사용하도록 설정하는 경우 CorsRules를 최소 권한으로 유지합니다.</t>
+          <t>스토리지는 CORS(Cross-Origin Resource Sharing), 즉 다른 도메인의 웹 앱이 동일 출처 정책을 완화할 수 있도록 하는 HTTP 기능을 지원합니다. CORS를 사용하도록 설정할 때 CorsRules를 최소 권한으로 유지합니다.</t>
         </is>
       </c>
       <c r="E38" s="21" t="inlineStr">
@@ -2648,7 +2648,7 @@
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>어떤 플랫폼 암호화를 사용해야 하는지 확인합니다.</t>
+          <t>어떤 플랫폼 암호화를 사용해야 하는지 여부를 결정합니다.</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
@@ -2745,7 +2745,7 @@
       </c>
       <c r="D42" s="21" t="inlineStr">
         <is>
-          <t>리소스 그래프 탐색기(리소스 | where type == 'microsoft.storage/storageaccounts' | where properties['allowBlobPublicAccess'] == true)를 활용하여 익명 Blob 액세스를 허용하는 스토리지 계정을 찾습니다.</t>
+          <t>익명 액세스는 보안 위험을 초래할 수 있습니다. 최적의 보안을 위해 익명 액세스를 사용하지 않도록 설정하는 것이 좋습니다. 익명 액세스를 허용하지 않으면 원치 않는 익명 액세스로 인한 데이터 침해를 방지하는 데 도움이 됩니다.</t>
         </is>
       </c>
       <c r="E42" s="21" t="inlineStr">
@@ -7211,7 +7211,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>네트워크 토폴로지 및 연결성</t>
+          <t>네트워크 토폴로지 및 연결</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -7265,7 +7265,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>권장 사항을 이해하지만 현재 요구 사항에 필요하지 않음</t>
+          <t>권장 사항을 이해했지만 현재 요구 사항에 필요하지 않음</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
